--- a/data/trans_orig/IP07C16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{639084ED-74BD-49BD-9D0B-3870A43AB143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC754668-A74E-47A7-8492-2D1AF5397EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{31518E72-0F32-45B4-8BA2-BD461FEA00E9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C0176A26-947E-47DF-B92E-4E476D633221}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,256 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>10,43%</t>
@@ -100,39 +346,6 @@
     <t>16,18%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>42,68%</t>
   </si>
   <si>
@@ -160,33 +373,6 @@
     <t>50,34%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>43,19%</t>
   </si>
   <si>
@@ -208,117 +394,150 @@
     <t>35,35%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
     <t>18,29%</t>
   </si>
   <si>
@@ -346,30 +565,6 @@
     <t>22,9%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
     <t>37,58%</t>
   </si>
   <si>
@@ -397,21 +592,6 @@
     <t>40,03%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
     <t>42,06%</t>
   </si>
   <si>
@@ -430,190 +610,58 @@
     <t>56,7%</t>
   </si>
   <si>
-    <t>44,53%</t>
-  </si>
-  <si>
     <t>38,38%</t>
   </si>
   <si>
     <t>51,01%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>13,2%</t>
@@ -643,33 +691,6 @@
     <t>15,75%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
     <t>44,03%</t>
   </si>
   <si>
@@ -697,27 +718,6 @@
     <t>46,14%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>40,69%</t>
   </si>
   <si>
@@ -748,6 +748,219 @@
     <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
     <t>7,53%</t>
   </si>
   <si>
@@ -772,21 +985,6 @@
     <t>5,57%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
@@ -814,21 +1012,6 @@
     <t>46,75%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>48,71%</t>
   </si>
   <si>
@@ -856,112 +1039,130 @@
     <t>55,32%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>19,6%</t>
@@ -985,30 +1186,9 @@
     <t>16,88%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
     <t>39,62%</t>
   </si>
   <si>
@@ -1036,18 +1216,6 @@
     <t>47,74%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
     <t>39,86%</t>
   </si>
   <si>
@@ -1072,172 +1240,40 @@
     <t>47,05%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>13,04%</t>
@@ -1264,24 +1300,6 @@
     <t>15,1%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
     <t>36,68%</t>
   </si>
   <si>
@@ -1306,24 +1324,6 @@
     <t>35,07%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
     <t>48,87%</t>
   </si>
   <si>
@@ -1354,15 +1354,201 @@
     <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 45,63%)</t>
   </si>
   <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
     <t>13,6%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
     <t>11,39%</t>
   </si>
   <si>
@@ -1381,27 +1567,6 @@
     <t>16,72%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
     <t>37,36%</t>
   </si>
   <si>
@@ -1426,18 +1591,6 @@
     <t>35,83%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
     <t>46,4%</t>
   </si>
   <si>
@@ -1459,88 +1612,127 @@
     <t>48,93%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>17,61%</t>
@@ -1567,24 +1759,6 @@
     <t>23,4%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
     <t>41,32%</t>
   </si>
   <si>
@@ -1612,18 +1786,6 @@
     <t>46,08%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
     <t>38,68%</t>
   </si>
   <si>
@@ -1648,166 +1810,34 @@
     <t>43,12%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>13,86%</t>
@@ -1834,27 +1864,6 @@
     <t>16,52%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
     <t>40,48%</t>
   </si>
   <si>
@@ -1880,15 +1889,6 @@
   </si>
   <si>
     <t>43,34%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
   </si>
   <si>
     <t>43,31%</t>
@@ -2307,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C426B418-A79D-4650-AC23-AB7C37FF01C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62AA3A2-25D5-4C28-AC1B-D447A503D812}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2425,10 +2425,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9605</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2440,238 +2440,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>13152</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>36</v>
-      </c>
-      <c r="N4" s="7">
-        <v>22757</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2719</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>4749</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>39311</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>46037</v>
+        <v>1421</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>85348</v>
+        <v>1421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>685</v>
+        <v>7640</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>8160</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>685</v>
+        <v>15800</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>39784</v>
+        <v>4840</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>37962</v>
+        <v>3761</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>77746</v>
+        <v>8601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,108 +2680,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>92104</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>99181</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>191285</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>9336</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>6334</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>15670</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2790,13 +2790,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2805,13 +2805,13 @@
         <v>1379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2820,121 +2820,121 @@
         <v>1379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>25140</v>
+        <v>9336</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>20832</v>
+        <v>6334</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>45972</v>
+        <v>15670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>25140</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="7">
+        <v>31</v>
+      </c>
+      <c r="I13" s="7">
+        <v>20832</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="7">
+        <v>69</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45972</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>33</v>
@@ -2943,13 +2943,13 @@
         <v>21012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -2958,13 +2958,13 @@
         <v>15616</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -2973,13 +2973,13 @@
         <v>36628</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -3009,13 +3009,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -3024,270 +3024,270 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>15874</v>
+        <v>685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>13085</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>28959</v>
+        <v>685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2719</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>1795</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
       <c r="I17" s="7">
-        <v>3821</v>
+        <v>2030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>5616</v>
+        <v>4749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>32606</v>
+        <v>9605</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>22859</v>
+        <v>13152</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N18" s="7">
-        <v>55465</v>
+        <v>22757</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>39311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="I19" s="7">
-        <v>1526</v>
+        <v>46037</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="N19" s="7">
-        <v>1526</v>
+        <v>85348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7">
-        <v>36494</v>
+        <v>39784</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7">
-        <v>37018</v>
+        <v>37962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="N20" s="7">
-        <v>73511</v>
+        <v>77746</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,54 +3296,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>86769</v>
+        <v>92104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>99181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="N21" s="7">
-        <v>165078</v>
+        <v>191285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,247 +3355,247 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>7640</v>
+        <v>5783</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>8160</v>
+        <v>5260</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>15800</v>
+        <v>11044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>30716</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>22126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>52842</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D26" s="7">
-        <v>4840</v>
+        <v>23032</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="7">
+        <v>41</v>
+      </c>
+      <c r="I26" s="7">
+        <v>25946</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>77</v>
+      </c>
+      <c r="N26" s="7">
+        <v>48979</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3761</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M26" s="7">
-        <v>11</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8601</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,300 +3604,300 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>60735</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>53865</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>114601</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>5783</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>5260</v>
+        <v>1526</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>11044</v>
+        <v>1526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>1203</v>
+        <v>1795</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>533</v>
+        <v>3821</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N29" s="7">
-        <v>1736</v>
+        <v>5616</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D30" s="7">
-        <v>30716</v>
+        <v>15874</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="7">
+        <v>17</v>
+      </c>
+      <c r="I30" s="7">
+        <v>13085</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="7">
+        <v>40</v>
+      </c>
+      <c r="N30" s="7">
+        <v>28959</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="7">
-        <v>37</v>
-      </c>
-      <c r="I30" s="7">
-        <v>22126</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M30" s="7">
-        <v>86</v>
-      </c>
-      <c r="N30" s="7">
-        <v>52842</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>32606</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>22859</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M31" s="7">
+        <v>78</v>
+      </c>
+      <c r="N31" s="7">
+        <v>55465</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="7">
+        <v>52</v>
+      </c>
+      <c r="D32" s="7">
+        <v>36494</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="7">
         <v>48</v>
       </c>
-      <c r="C32" s="7">
-        <v>36</v>
-      </c>
-      <c r="D32" s="7">
-        <v>23032</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H32" s="7">
-        <v>41</v>
-      </c>
       <c r="I32" s="7">
-        <v>25946</v>
+        <v>37018</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M32" s="7">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="N32" s="7">
-        <v>48979</v>
+        <v>73511</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>190</v>
@@ -3912,49 +3912,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D33" s="7">
-        <v>60735</v>
+        <v>86769</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>53865</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="N33" s="7">
-        <v>114601</v>
+        <v>165078</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,55 +3965,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>40598</v>
+        <v>685</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>192</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1526</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="7">
-        <v>58</v>
-      </c>
-      <c r="I34" s="7">
-        <v>39253</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2211</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M34" s="7">
-        <v>119</v>
-      </c>
-      <c r="N34" s="7">
-        <v>79851</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>9</v>
@@ -4022,13 +4022,13 @@
         <v>5717</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -4037,13 +4037,13 @@
         <v>7763</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>20</v>
@@ -4052,106 +4052,106 @@
         <v>13480</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="D36" s="7">
-        <v>135413</v>
+        <v>40598</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>58</v>
+      </c>
+      <c r="I36" s="7">
+        <v>39253</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H36" s="7">
-        <v>181</v>
-      </c>
-      <c r="I36" s="7">
-        <v>120014</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>119</v>
+      </c>
+      <c r="N36" s="7">
+        <v>79851</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M36" s="7">
-        <v>386</v>
-      </c>
-      <c r="N36" s="7">
-        <v>255427</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="D37" s="7">
-        <v>685</v>
+        <v>135413</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>181</v>
+      </c>
+      <c r="I37" s="7">
+        <v>120014</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1526</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>222</v>
       </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>386</v>
       </c>
       <c r="N37" s="7">
-        <v>2211</v>
+        <v>255427</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>223</v>
@@ -4166,7 +4166,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>187</v>
@@ -4226,13 +4226,13 @@
         <v>307576</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>429</v>
@@ -4241,13 +4241,13 @@
         <v>288858</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>892</v>
@@ -4256,13 +4256,13 @@
         <v>596434</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3926C239-16DF-4EDE-8345-5404BA143A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF85E5B3-9375-4CE0-9152-BA85468CC60E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4401,55 +4401,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7119</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8552</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M4" s="7">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15671</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4458,196 +4458,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>40723</v>
+        <v>1001</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>37996</v>
+        <v>1815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>78719</v>
+        <v>2816</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>652</v>
+        <v>3676</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>652</v>
+        <v>6486</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>46058</v>
+        <v>9813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>48674</v>
+        <v>6650</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>94731</v>
+        <v>16464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,108 +4656,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>94552</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>96553</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>191105</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6901</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>5764</v>
+        <v>916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>12664</v>
+        <v>916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -4766,13 +4766,13 @@
         <v>679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4781,13 +4781,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4796,121 +4796,121 @@
         <v>679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>21567</v>
+        <v>6901</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>18252</v>
+        <v>5764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>39819</v>
+        <v>12664</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>21567</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>916</v>
+        <v>18252</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>916</v>
+        <v>39819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -4919,13 +4919,13 @@
         <v>28340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4934,13 +4934,13 @@
         <v>27240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -4949,13 +4949,13 @@
         <v>55579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4970,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -4985,13 +4985,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -5000,72 +5000,72 @@
         <v>109657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>17462</v>
+        <v>652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>12046</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>29508</v>
+        <v>652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -5074,196 +5074,196 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>2255</v>
+        <v>1331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>2255</v>
+        <v>1331</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>35308</v>
+        <v>7119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>36955</v>
+        <v>8552</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="M18" s="7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>72264</v>
+        <v>15671</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7">
-        <v>823</v>
+        <v>40723</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>37996</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="N19" s="7">
-        <v>823</v>
+        <v>78719</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>35515</v>
+        <v>46058</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I20" s="7">
-        <v>34469</v>
+        <v>48674</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="N20" s="7">
-        <v>69984</v>
+        <v>94731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,306 +5272,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D21" s="7">
-        <v>89109</v>
+        <v>94552</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>85725</v>
+        <v>96553</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="N21" s="7">
-        <v>174834</v>
+        <v>191105</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>1001</v>
+        <v>1794</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>2816</v>
+        <v>1794</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1273</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1898</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>3676</v>
+        <v>9734</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>2810</v>
+        <v>8264</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>6486</v>
+        <v>17998</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>348</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>17481</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>27827</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>45308</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D26" s="7">
-        <v>9813</v>
+        <v>38524</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H26" s="7">
+        <v>42</v>
+      </c>
+      <c r="I26" s="7">
+        <v>27802</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6650</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>101</v>
+      </c>
+      <c r="N26" s="7">
+        <v>66326</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M26" s="7">
-        <v>19</v>
-      </c>
-      <c r="N26" s="7">
-        <v>16464</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,300 +5580,300 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>68157</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>133324</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>9734</v>
+        <v>823</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>823</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H28" s="7">
-        <v>13</v>
-      </c>
-      <c r="I28" s="7">
-        <v>8264</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M28" s="7">
-        <v>29</v>
-      </c>
-      <c r="N28" s="7">
-        <v>17998</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>26</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>1273</v>
+        <v>2255</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>1898</v>
+        <v>2255</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>373</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D30" s="7">
-        <v>17481</v>
+        <v>17462</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>12046</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>39</v>
+      </c>
+      <c r="N30" s="7">
+        <v>29508</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H30" s="7">
-        <v>43</v>
-      </c>
-      <c r="I30" s="7">
-        <v>27827</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="M30" s="7">
-        <v>72</v>
-      </c>
-      <c r="N30" s="7">
-        <v>45308</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D31" s="7">
-        <v>1794</v>
+        <v>35308</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H31" s="7">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7">
+        <v>36955</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>388</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="N31" s="7">
-        <v>1794</v>
+        <v>72264</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>245</v>
+        <v>389</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D32" s="7">
-        <v>38524</v>
+        <v>35515</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H32" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I32" s="7">
-        <v>27802</v>
+        <v>34469</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M32" s="7">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N32" s="7">
-        <v>66326</v>
+        <v>69984</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>397</v>
+        <v>183</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>398</v>
@@ -5888,49 +5888,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D33" s="7">
-        <v>68157</v>
+        <v>89109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I33" s="7">
-        <v>65167</v>
+        <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="N33" s="7">
-        <v>133324</v>
+        <v>174834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,10 +5941,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>42216</v>
+        <v>3270</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>400</v>
@@ -5956,40 +5956,40 @@
         <v>402</v>
       </c>
       <c r="H34" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>36441</v>
+        <v>916</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>403</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>404</v>
       </c>
       <c r="M34" s="7">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="N34" s="7">
-        <v>78658</v>
+        <v>4185</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>407</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -5998,13 +5998,13 @@
         <v>1304</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -6013,13 +6013,13 @@
         <v>4859</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -6028,121 +6028,121 @@
         <v>6163</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="D36" s="7">
-        <v>118755</v>
+        <v>42216</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>51</v>
+      </c>
+      <c r="I36" s="7">
+        <v>36441</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H36" s="7">
-        <v>177</v>
-      </c>
-      <c r="I36" s="7">
-        <v>123839</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>113</v>
+      </c>
+      <c r="N36" s="7">
+        <v>78658</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="M36" s="7">
-        <v>350</v>
-      </c>
-      <c r="N36" s="7">
-        <v>242595</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="D37" s="7">
-        <v>3270</v>
+        <v>118755</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>177</v>
+      </c>
+      <c r="I37" s="7">
+        <v>123839</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>916</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>350</v>
+      </c>
+      <c r="N37" s="7">
+        <v>242595</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="M37" s="7">
-        <v>6</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4185</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>427</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>229</v>
@@ -6202,13 +6202,13 @@
         <v>323795</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>442</v>
@@ -6217,13 +6217,13 @@
         <v>310890</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>913</v>
@@ -6232,13 +6232,13 @@
         <v>634685</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6259,7 +6259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B62E9D4-E00F-41FF-9F4B-576B6F497CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69307C8-17FD-4F92-8B21-0F1D91059F22}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6377,253 +6377,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>14065</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11721</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="M4" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>25787</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>445</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>446</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2722</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>447</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2961</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>5683</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>452</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>453</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>38627</v>
+        <v>2609</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H6" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>45587</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>458</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="M6" s="7">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>84213</v>
+        <v>2609</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>460</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>461</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3737</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>1244</v>
+        <v>5764</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>448</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>1244</v>
+        <v>9501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>47980</v>
+        <v>5814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="H8" s="7">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>41385</v>
+        <v>6959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>456</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="M8" s="7">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>89365</v>
+        <v>12773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,108 +6632,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>103395</v>
+        <v>12160</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>102897</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>206291</v>
+        <v>24883</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7186</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>474</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>8894</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>476</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>477</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>16080</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>479</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6742,13 +6742,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6757,13 +6757,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6772,121 +6772,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>27296</v>
+        <v>7186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="H12" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>21204</v>
+        <v>8894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="N12" s="7">
-        <v>48500</v>
+        <v>16080</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>27296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>21204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>476</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>48500</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>478</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>479</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>31</v>
@@ -6895,13 +6895,13 @@
         <v>23354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -6910,13 +6910,13 @@
         <v>26183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -6925,13 +6925,13 @@
         <v>49537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6946,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6961,13 +6961,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6976,270 +6976,270 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>17524</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>19869</v>
+        <v>1244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>504</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>37393</v>
+        <v>1244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>507</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2382</v>
+        <v>2722</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>3763</v>
+        <v>2961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>6145</v>
+        <v>5683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>499</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>41128</v>
+        <v>14065</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>41509</v>
+        <v>11721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="N18" s="7">
-        <v>82637</v>
+        <v>25787</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>38627</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>509</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>511</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7">
-        <v>1615</v>
+        <v>45587</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="N19" s="7">
-        <v>1615</v>
+        <v>84213</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>527</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>38494</v>
+        <v>47980</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>529</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="H20" s="7">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I20" s="7">
-        <v>36403</v>
+        <v>41385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>519</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>531</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="M20" s="7">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="N20" s="7">
-        <v>74897</v>
+        <v>89365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,72 +7248,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>103395</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>103160</v>
+        <v>102897</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="N21" s="7">
-        <v>202688</v>
+        <v>206291</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>2609</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>536</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>537</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7322,232 +7322,232 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>539</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>2609</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>3052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>3614</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>3737</v>
+        <v>6792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>544</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>5764</v>
+        <v>10249</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>9501</v>
+        <v>17041</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>29903</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>540</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>541</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>23208</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>543</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>53111</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>42</v>
+        <v>545</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>44</v>
+        <v>546</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>352</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D26" s="7">
-        <v>5814</v>
+        <v>34874</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H26" s="7">
+        <v>56</v>
+      </c>
+      <c r="I26" s="7">
+        <v>35890</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6959</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>106</v>
+      </c>
+      <c r="N26" s="7">
+        <v>70764</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="M26" s="7">
-        <v>15</v>
-      </c>
-      <c r="N26" s="7">
-        <v>12773</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,252 +7556,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>12160</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>24883</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>6792</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>559</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>560</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>10249</v>
+        <v>1615</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>562</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M28" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>17041</v>
+        <v>1615</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>565</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>3052</v>
+        <v>2382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>28</v>
+        <v>560</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
+        <v>3763</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>526</v>
-      </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>563</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N29" s="7">
-        <v>3614</v>
+        <v>6145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>570</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>571</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>29903</v>
+        <v>17524</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H30" s="7">
+        <v>25</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19869</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M30" s="7">
+        <v>50</v>
+      </c>
+      <c r="N30" s="7">
+        <v>37393</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="H30" s="7">
-        <v>37</v>
-      </c>
-      <c r="I30" s="7">
-        <v>23208</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="M30" s="7">
-        <v>78</v>
-      </c>
-      <c r="N30" s="7">
-        <v>53111</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>41128</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
+        <v>573</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>44</v>
+        <v>574</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H31" s="7">
+        <v>54</v>
+      </c>
+      <c r="I31" s="7">
+        <v>41509</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="M31" s="7">
+        <v>109</v>
+      </c>
+      <c r="N31" s="7">
+        <v>82637</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>581</v>
@@ -7810,13 +7810,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D32" s="7">
-        <v>34874</v>
+        <v>38494</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>582</v>
@@ -7828,25 +7828,25 @@
         <v>584</v>
       </c>
       <c r="H32" s="7">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I32" s="7">
-        <v>35890</v>
+        <v>36403</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>586</v>
       </c>
       <c r="M32" s="7">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N32" s="7">
-        <v>70764</v>
+        <v>74897</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>587</v>
@@ -7864,49 +7864,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103160</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>202688</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,55 +7917,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>48177</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2859</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2859</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="H34" s="7">
-        <v>70</v>
-      </c>
-      <c r="I34" s="7">
-        <v>50733</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="M34" s="7">
-        <v>136</v>
-      </c>
-      <c r="N34" s="7">
-        <v>98910</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>11</v>
@@ -7974,13 +7974,13 @@
         <v>8156</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -7989,13 +7989,13 @@
         <v>7286</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -8004,112 +8004,112 @@
         <v>15442</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="D36" s="7">
-        <v>140691</v>
+        <v>48177</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H36" s="7">
+        <v>70</v>
+      </c>
+      <c r="I36" s="7">
+        <v>50733</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>136</v>
+      </c>
+      <c r="N36" s="7">
+        <v>98910</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="H36" s="7">
-        <v>196</v>
-      </c>
-      <c r="I36" s="7">
-        <v>137271</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="M36" s="7">
-        <v>388</v>
-      </c>
-      <c r="N36" s="7">
-        <v>277963</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>140691</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>42</v>
+        <v>608</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>44</v>
+        <v>609</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>408</v>
+        <v>610</v>
       </c>
       <c r="H37" s="7">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="I37" s="7">
-        <v>2859</v>
+        <v>137271</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M37" s="7">
+        <v>388</v>
+      </c>
+      <c r="N37" s="7">
+        <v>277963</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2859</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>616</v>
@@ -8118,7 +8118,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>209</v>
@@ -8178,13 +8178,13 @@
         <v>347539</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>492</v>
@@ -8193,13 +8193,13 @@
         <v>344970</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>970</v>
@@ -8208,13 +8208,13 @@
         <v>692509</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C16-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C521A94C-6C3F-4A24-9BE6-DF5DA99DB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{325B92C6-9A04-43D0-8B20-ED46304C7AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B7D04DC-F3DE-4A15-AF39-C63628B8C165}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F85AAD49-D93D-499A-AF92-98B02FF6AD62}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="638">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 42,4%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,1897 +76,1882 @@
     <t>38,78%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
     <t>48,39%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +2363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63C8223-E950-48C8-93B2-94D32330F716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C373CF-71EA-4418-B098-2FB66179DAAF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2538,13 +2523,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -2553,13 +2538,13 @@
         <v>7640</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -2568,13 +2553,13 @@
         <v>8160</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -2583,34 +2568,34 @@
         <v>15800</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2619,13 +2604,13 @@
         <v>1421</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2634,70 +2619,70 @@
         <v>1421</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2706,14 +2691,14 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
@@ -2721,28 +2706,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2742,13 @@
         <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -2772,13 +2757,13 @@
         <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -2787,18 +2772,18 @@
         <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2810,13 +2795,13 @@
         <v>21012</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -2825,13 +2810,13 @@
         <v>15616</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -2840,19 +2825,19 @@
         <v>36628</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
@@ -2861,13 +2846,13 @@
         <v>25140</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -2876,13 +2861,13 @@
         <v>20832</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -2891,19 +2876,19 @@
         <v>45972</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>14</v>
@@ -2912,13 +2897,13 @@
         <v>9336</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -2927,13 +2912,13 @@
         <v>6334</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -2942,19 +2927,19 @@
         <v>15670</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2963,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2978,13 +2963,13 @@
         <v>1379</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2993,19 +2978,19 @@
         <v>1379</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3014,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3029,28 +3014,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3050,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -3080,13 +3065,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -3095,18 +3080,18 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3118,13 +3103,13 @@
         <v>39784</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3133,13 +3118,13 @@
         <v>37962</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3148,19 +3133,19 @@
         <v>77746</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>60</v>
@@ -3169,13 +3154,13 @@
         <v>39311</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -3184,13 +3169,13 @@
         <v>46037</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -3199,19 +3184,19 @@
         <v>85348</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>15</v>
@@ -3220,13 +3205,13 @@
         <v>9605</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -3235,13 +3220,13 @@
         <v>13152</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3250,19 +3235,19 @@
         <v>22757</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>4</v>
@@ -3271,13 +3256,13 @@
         <v>2719</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3286,13 +3271,13 @@
         <v>2030</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3301,19 +3286,19 @@
         <v>4749</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -3322,28 +3307,28 @@
         <v>685</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3352,13 +3337,13 @@
         <v>685</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3358,13 @@
         <v>92104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
         <v>156</v>
@@ -3388,13 +3373,13 @@
         <v>99181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
         <v>296</v>
@@ -3403,18 +3388,18 @@
         <v>191285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3426,13 +3411,13 @@
         <v>23032</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3441,13 +3426,13 @@
         <v>25946</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -3456,19 +3441,19 @@
         <v>48979</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>49</v>
@@ -3477,13 +3462,13 @@
         <v>30716</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -3492,13 +3477,13 @@
         <v>22126</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -3519,7 +3504,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>9</v>
@@ -3570,7 +3555,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -3582,7 +3567,7 @@
         <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>148</v>
@@ -3597,7 +3582,7 @@
         <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>150</v>
@@ -3621,7 +3606,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3630,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>147</v>
@@ -3645,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>154</v>
@@ -3660,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>155</v>
@@ -3681,13 +3666,13 @@
         <v>60735</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
         <v>88</v>
@@ -3696,13 +3681,13 @@
         <v>53865</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
         <v>184</v>
@@ -3711,13 +3696,13 @@
         <v>114601</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,10 +3722,10 @@
         <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>48</v>
@@ -3749,13 +3734,13 @@
         <v>37018</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -3764,19 +3749,19 @@
         <v>73511</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>48</v>
@@ -3785,13 +3770,13 @@
         <v>32606</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -3800,13 +3785,13 @@
         <v>22859</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -3815,19 +3800,19 @@
         <v>55465</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>23</v>
@@ -3836,13 +3821,13 @@
         <v>15874</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -3851,13 +3836,13 @@
         <v>13085</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -3866,19 +3851,19 @@
         <v>28959</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -3887,13 +3872,13 @@
         <v>1795</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -3902,13 +3887,13 @@
         <v>3821</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -3917,19 +3902,19 @@
         <v>5616</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -3938,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>151</v>
@@ -3953,13 +3938,13 @@
         <v>1526</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3968,13 +3953,13 @@
         <v>1526</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3974,13 @@
         <v>86769</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
         <v>102</v>
@@ -4004,13 +3989,13 @@
         <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
         <v>228</v>
@@ -4019,13 +4004,13 @@
         <v>165078</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4027,13 @@
         <v>125162</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>177</v>
@@ -4057,13 +4042,13 @@
         <v>120303</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>364</v>
@@ -4072,19 +4057,19 @@
         <v>245465</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>205</v>
@@ -4093,13 +4078,13 @@
         <v>135413</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
         <v>181</v>
@@ -4108,13 +4093,13 @@
         <v>120014</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7">
         <v>386</v>
@@ -4123,19 +4108,19 @@
         <v>255427</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>61</v>
@@ -4144,10 +4129,10 @@
         <v>40598</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>215</v>
@@ -4180,13 +4165,13 @@
         <v>220</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>9</v>
@@ -4195,13 +4180,13 @@
         <v>5717</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -4210,13 +4195,13 @@
         <v>7763</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
@@ -4225,19 +4210,19 @@
         <v>13480</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -4246,13 +4231,13 @@
         <v>685</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4261,13 +4246,13 @@
         <v>1526</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4276,13 +4261,13 @@
         <v>2211</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4282,13 @@
         <v>307576</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>429</v>
@@ -4312,13 +4297,13 @@
         <v>288858</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>892</v>
@@ -4327,18 +4312,18 @@
         <v>596434</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E67576-EAF6-443A-A51A-F9BB450C7F48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A80FABB-04A2-49C0-B4B1-5EB180182C63}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4376,7 +4361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4483,13 +4468,13 @@
         <v>9813</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4498,13 +4483,13 @@
         <v>6650</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4513,19 +4498,19 @@
         <v>16464</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -4534,13 +4519,13 @@
         <v>3676</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4549,13 +4534,13 @@
         <v>2810</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4564,19 +4549,19 @@
         <v>6486</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4585,13 +4570,13 @@
         <v>1001</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4600,13 +4585,13 @@
         <v>1815</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4615,19 +4600,19 @@
         <v>2816</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4636,14 +4621,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
@@ -4651,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4666,19 +4651,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4687,14 +4672,14 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
@@ -4702,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4717,13 +4702,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4723,13 @@
         <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4753,13 +4738,13 @@
         <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -4768,18 +4753,18 @@
         <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4791,13 +4776,13 @@
         <v>28340</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4806,13 +4791,13 @@
         <v>27240</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -4821,19 +4806,19 @@
         <v>55579</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>32</v>
@@ -4842,13 +4827,13 @@
         <v>21567</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -4857,13 +4842,13 @@
         <v>18252</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -4872,19 +4857,19 @@
         <v>39819</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
@@ -4893,13 +4878,13 @@
         <v>6901</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -4908,13 +4893,13 @@
         <v>5764</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -4923,19 +4908,19 @@
         <v>12664</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -4944,28 +4929,28 @@
         <v>679</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4974,19 +4959,19 @@
         <v>679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4995,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5010,13 +4995,13 @@
         <v>916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5025,13 +5010,13 @@
         <v>916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5031,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -5061,13 +5046,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -5076,18 +5061,18 @@
         <v>109657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5099,13 +5084,13 @@
         <v>46058</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -5114,13 +5099,13 @@
         <v>48674</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -5129,19 +5114,19 @@
         <v>94731</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>60</v>
@@ -5150,13 +5135,13 @@
         <v>40723</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -5165,13 +5150,13 @@
         <v>37996</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -5180,19 +5165,19 @@
         <v>78719</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -5201,13 +5186,13 @@
         <v>7119</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -5216,13 +5201,13 @@
         <v>8552</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -5231,19 +5216,19 @@
         <v>15671</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5252,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5267,13 +5252,13 @@
         <v>1331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5282,19 +5267,19 @@
         <v>1331</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -5303,25 +5288,25 @@
         <v>652</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>333</v>
@@ -5336,10 +5321,10 @@
         <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5339,13 @@
         <v>94552</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -5369,13 +5354,13 @@
         <v>96553</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
         <v>287</v>
@@ -5384,18 +5369,18 @@
         <v>191105</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5407,13 +5392,13 @@
         <v>38524</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5422,13 +5407,13 @@
         <v>27802</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -5437,19 +5422,19 @@
         <v>66326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>29</v>
@@ -5458,13 +5443,13 @@
         <v>17481</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -5473,13 +5458,13 @@
         <v>27827</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -5488,19 +5473,19 @@
         <v>45308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>16</v>
@@ -5509,13 +5494,13 @@
         <v>9734</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -5524,13 +5509,13 @@
         <v>8264</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -5539,19 +5524,19 @@
         <v>17998</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -5560,13 +5545,13 @@
         <v>625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5575,13 +5560,13 @@
         <v>1273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5590,19 +5575,19 @@
         <v>1898</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -5611,28 +5596,28 @@
         <v>1794</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5641,13 +5626,13 @@
         <v>1794</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5647,13 @@
         <v>68157</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -5677,13 +5662,13 @@
         <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
         <v>208</v>
@@ -5692,13 +5677,13 @@
         <v>133324</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5700,13 @@
         <v>35515</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -5730,13 +5715,13 @@
         <v>34469</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -5745,19 +5730,19 @@
         <v>69984</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>48</v>
@@ -5766,13 +5751,13 @@
         <v>35308</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -5781,13 +5766,13 @@
         <v>36955</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -5796,19 +5781,19 @@
         <v>72264</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>24</v>
@@ -5817,13 +5802,13 @@
         <v>17462</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -5832,13 +5817,13 @@
         <v>12046</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -5847,19 +5832,19 @@
         <v>29508</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -5868,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>398</v>
@@ -5883,13 +5868,13 @@
         <v>2255</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -5898,19 +5883,19 @@
         <v>2255</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>334</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -5919,28 +5904,28 @@
         <v>823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5949,13 +5934,13 @@
         <v>823</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5955,13 @@
         <v>89109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
         <v>110</v>
@@ -5985,13 +5970,13 @@
         <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
         <v>232</v>
@@ -6000,13 +5985,13 @@
         <v>174834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6008,13 @@
         <v>158250</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>407</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H34" s="7">
         <v>206</v>
@@ -6038,13 +6023,13 @@
         <v>144835</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M34" s="7">
         <v>435</v>
@@ -6053,19 +6038,19 @@
         <v>303084</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>173</v>
@@ -6074,13 +6059,13 @@
         <v>118755</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H35" s="7">
         <v>177</v>
@@ -6089,13 +6074,13 @@
         <v>123839</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M35" s="7">
         <v>350</v>
@@ -6104,19 +6089,19 @@
         <v>242595</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>317</v>
+        <v>422</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>62</v>
@@ -6125,13 +6110,13 @@
         <v>42216</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H36" s="7">
         <v>51</v>
@@ -6140,13 +6125,13 @@
         <v>36441</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M36" s="7">
         <v>113</v>
@@ -6155,19 +6140,19 @@
         <v>78658</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
@@ -6176,13 +6161,13 @@
         <v>1304</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>189</v>
+        <v>433</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -6194,10 +6179,10 @@
         <v>398</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -6206,19 +6191,19 @@
         <v>6163</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -6227,13 +6212,13 @@
         <v>3270</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6242,13 +6227,13 @@
         <v>916</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6257,13 +6242,13 @@
         <v>4185</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>440</v>
+        <v>109</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6263,13 @@
         <v>323795</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>442</v>
@@ -6293,13 +6278,13 @@
         <v>310890</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>913</v>
@@ -6308,18 +6293,18 @@
         <v>634685</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6340,7 +6325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A45D39-0266-4C37-B5F2-8CFB4B90AF2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EB8276-5C88-43CA-82C8-8D5B7F920AB4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6357,7 +6342,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6464,13 +6449,13 @@
         <v>5814</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6479,13 +6464,13 @@
         <v>6959</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -6494,19 +6479,19 @@
         <v>12773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -6515,13 +6500,13 @@
         <v>3737</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6530,13 +6515,13 @@
         <v>5764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6545,19 +6530,19 @@
         <v>9501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -6566,13 +6551,13 @@
         <v>2609</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6581,13 +6566,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6596,19 +6581,19 @@
         <v>2609</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -6617,13 +6602,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6632,13 +6617,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6647,19 +6632,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6668,13 +6653,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6683,13 +6668,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6698,13 +6683,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6704,13 @@
         <v>12160</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -6734,13 +6719,13 @@
         <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -6749,18 +6734,18 @@
         <v>24883</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6772,13 +6757,13 @@
         <v>23354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6787,13 +6772,13 @@
         <v>26183</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -6802,19 +6787,19 @@
         <v>49537</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>478</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>35</v>
@@ -6865,7 +6850,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
@@ -6916,7 +6901,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -6925,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>497</v>
@@ -6940,13 +6925,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6955,19 +6940,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -6976,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>497</v>
@@ -6991,13 +6976,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7006,13 +6991,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7012,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -7042,13 +7027,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -7057,18 +7042,18 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7080,13 +7065,13 @@
         <v>47980</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>501</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -7095,13 +7080,13 @@
         <v>41385</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -7110,19 +7095,19 @@
         <v>89365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>56</v>
@@ -7131,13 +7116,13 @@
         <v>38627</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -7146,13 +7131,13 @@
         <v>45587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -7161,19 +7146,19 @@
         <v>84213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>20</v>
@@ -7182,13 +7167,13 @@
         <v>14065</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -7197,13 +7182,13 @@
         <v>11721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -7212,19 +7197,19 @@
         <v>25787</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>4</v>
@@ -7233,13 +7218,13 @@
         <v>2722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>440</v>
+        <v>527</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7248,13 +7233,13 @@
         <v>2961</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -7263,19 +7248,19 @@
         <v>5683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -7284,13 +7269,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7299,13 +7284,13 @@
         <v>1244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7314,13 +7299,13 @@
         <v>1244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,13 +7320,13 @@
         <v>103395</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7">
         <v>156</v>
@@ -7350,13 +7335,13 @@
         <v>102897</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
         <v>305</v>
@@ -7365,18 +7350,18 @@
         <v>206291</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7388,13 +7373,13 @@
         <v>34874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -7403,13 +7388,13 @@
         <v>35890</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -7418,19 +7403,19 @@
         <v>70764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>543</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>41</v>
@@ -7439,13 +7424,13 @@
         <v>29903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -7454,13 +7439,13 @@
         <v>23208</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -7469,19 +7454,19 @@
         <v>53111</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>9</v>
@@ -7490,7 +7475,7 @@
         <v>6792</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>555</v>
@@ -7532,7 +7517,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -7544,10 +7529,10 @@
         <v>563</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7556,13 +7541,13 @@
         <v>562</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7571,19 +7556,19 @@
         <v>3614</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -7592,13 +7577,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>537</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7607,13 +7592,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7622,13 +7607,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7628,13 @@
         <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="7">
         <v>108</v>
@@ -7658,13 +7643,13 @@
         <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M27" s="7">
         <v>212</v>
@@ -7673,13 +7658,13 @@
         <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7681,13 @@
         <v>38494</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="H28" s="7">
         <v>48</v>
@@ -7711,13 +7696,13 @@
         <v>36403</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -7726,19 +7711,19 @@
         <v>74897</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>55</v>
@@ -7747,13 +7732,13 @@
         <v>41128</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H29" s="7">
         <v>54</v>
@@ -7762,13 +7747,13 @@
         <v>41509</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -7777,19 +7762,19 @@
         <v>82637</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>25</v>
@@ -7798,13 +7783,13 @@
         <v>17524</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>589</v>
+        <v>12</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -7813,13 +7798,13 @@
         <v>19869</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -7828,19 +7813,19 @@
         <v>37393</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -7849,13 +7834,13 @@
         <v>2382</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -7864,13 +7849,13 @@
         <v>3763</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -7879,19 +7864,19 @@
         <v>6145</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -7900,13 +7885,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>433</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -7918,7 +7903,7 @@
         <v>603</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>604</v>
@@ -7930,10 +7915,10 @@
         <v>1615</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>605</v>
@@ -7951,13 +7936,13 @@
         <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" s="7">
         <v>134</v>
@@ -7966,13 +7951,13 @@
         <v>103160</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33" s="7">
         <v>269</v>
@@ -7981,13 +7966,13 @@
         <v>202688</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,7 +8031,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7">
         <v>192</v>
@@ -8058,10 +8043,10 @@
         <v>615</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="H35" s="7">
         <v>196</v>
@@ -8070,13 +8055,13 @@
         <v>137271</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>619</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="M35" s="7">
         <v>388</v>
@@ -8085,19 +8070,19 @@
         <v>277963</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>623</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>66</v>
@@ -8106,13 +8091,13 @@
         <v>48177</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H36" s="7">
         <v>70</v>
@@ -8121,13 +8106,13 @@
         <v>50733</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M36" s="7">
         <v>136</v>
@@ -8136,19 +8121,19 @@
         <v>98910</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>11</v>
@@ -8157,13 +8142,13 @@
         <v>8156</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>632</v>
+        <v>405</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -8172,13 +8157,13 @@
         <v>7286</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="M37" s="7">
         <v>21</v>
@@ -8187,19 +8172,19 @@
         <v>15442</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>637</v>
+        <v>433</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -8208,13 +8193,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -8223,13 +8208,13 @@
         <v>2859</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -8238,13 +8223,13 @@
         <v>2859</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>235</v>
+        <v>637</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>564</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8244,13 @@
         <v>347539</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="7">
         <v>492</v>
@@ -8274,13 +8259,13 @@
         <v>344970</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" s="7">
         <v>970</v>
@@ -8289,18 +8274,18 @@
         <v>692509</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
